--- a/browser/energy summary.xlsx
+++ b/browser/energy summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounir\Documents\GitHub\no browser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mounir\Documents\GitHub\video_call_energy\browser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451BC20-BD8C-466D-9491-845816DAE70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CC5AD2-A588-4616-B447-0B3CA2EA5CEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,17 +22,23 @@
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$61</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$61</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>camera</t>
   </si>
@@ -95,54 +101,6 @@
   </si>
   <si>
     <t>3.03mb</t>
-  </si>
-  <si>
-    <t>CAMERA</t>
-  </si>
-  <si>
-    <t>trasnmit</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
-    <t>3 cli</t>
-  </si>
-  <si>
-    <t>no cam</t>
-  </si>
-  <si>
-    <t>pi cam</t>
-  </si>
-  <si>
-    <t>no pi</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
-  <si>
-    <t>31.6kb</t>
-  </si>
-  <si>
-    <t>111kb</t>
-  </si>
-  <si>
-    <t>14.8mb</t>
-  </si>
-  <si>
-    <t>196kb</t>
-  </si>
-  <si>
-    <t>6.81mb</t>
-  </si>
-  <si>
-    <t>1.10mb</t>
-  </si>
-  <si>
-    <t>6.72mb</t>
-  </si>
-  <si>
-    <t>516kb</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1505,7 @@
         <v>5.3239999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.6669999999999998</v>
       </c>
@@ -1564,7 +1522,7 @@
         <v>5.1959999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.508</v>
       </c>
@@ -1581,7 +1539,7 @@
         <v>5.3620000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.6609999999999996</v>
       </c>
@@ -1598,7 +1556,7 @@
         <v>4.7430000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.5679999999999996</v>
       </c>
@@ -1615,7 +1573,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.63</v>
       </c>
@@ -1632,7 +1590,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.54</v>
       </c>
@@ -1657,17 +1615,8 @@
       <c r="J22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.6260000000000003</v>
       </c>
@@ -1692,11 +1641,8 @@
       <c r="J23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.3419999999999996</v>
       </c>
@@ -1721,17 +1667,8 @@
       <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.47</v>
       </c>
@@ -1756,17 +1693,8 @@
       <c r="J25" t="s">
         <v>16</v>
       </c>
-      <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.7679999999999998</v>
       </c>
@@ -1791,17 +1719,8 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.5259999999999998</v>
       </c>
@@ -1826,17 +1745,8 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.6429999999999998</v>
       </c>
@@ -1853,7 +1763,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.5540000000000003</v>
       </c>
@@ -1870,7 +1780,7 @@
         <v>4.6230000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.5259999999999998</v>
       </c>
@@ -1887,7 +1797,7 @@
         <v>4.5049999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.617</v>
       </c>
@@ -1904,7 +1814,7 @@
         <v>4.6360000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.54</v>
       </c>
